--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_Kraszewski\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B7517-7919-4790-8569-A67AD2EBF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29BCF6A-FB43-48D8-B6C9-B7D7A3D44075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -3979,7 +3979,6 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 14" xfId="792" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
@@ -4003,6 +4002,7 @@
     <cellStyle name="Normal GHG-Shade" xfId="809" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
     <cellStyle name="Normale_B2020" xfId="811" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="812" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
     <cellStyle name="Normalny 10 10" xfId="1264" xr:uid="{F0298CB0-9A99-4397-8CF2-13F65A88507D}"/>
     <cellStyle name="Normalny 10 2" xfId="813" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
@@ -4731,7 +4731,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4769,7 +4769,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4841,7 +4841,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5022,12 +5022,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="11" customWidth="1"/>
-    <col min="4" max="9" width="14.26953125" style="11" customWidth="1"/>
+    <col min="4" max="9" width="14.21875" style="11" customWidth="1"/>
     <col min="10" max="12" width="4" style="11" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="11"/>
+    <col min="13" max="16384" width="9.21875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -5488,8 +5488,8 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="48" spans="1:12" ht="59.5" customHeight="1"/>
-    <row r="49" ht="64.150000000000006" customHeight="1"/>
+    <row r="48" spans="1:12" ht="59.55" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D22:E22"/>
@@ -5520,14 +5520,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="44.26953125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" style="35" customWidth="1"/>
     <col min="7" max="9" width="4" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="35"/>
+    <col min="10" max="16384" width="9.21875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -5552,7 +5552,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="18.5">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="10"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -5563,7 +5563,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="18.5">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="15"/>
       <c r="C4" s="20"/>
@@ -5576,7 +5576,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="18.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="10"/>
       <c r="B5" s="15"/>
       <c r="C5" s="20"/>
@@ -5587,7 +5587,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="18.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="10"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20"/>
@@ -5600,7 +5600,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="18.5">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20"/>
@@ -5611,7 +5611,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="18.5">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20"/>
@@ -5624,7 +5624,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="18.5">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="10"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20"/>
@@ -5635,7 +5635,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="18.5">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="10"/>
       <c r="B10" s="15"/>
       <c r="C10" s="20"/>
@@ -5650,7 +5650,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="10"/>
       <c r="B11" s="15"/>
       <c r="C11" s="20"/>
@@ -5661,7 +5661,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="10"/>
       <c r="B12" s="15"/>
       <c r="C12" s="20"/>
@@ -5672,7 +5672,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="10"/>
       <c r="B13" s="15"/>
       <c r="C13" s="20"/>
@@ -5683,7 +5683,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="18.5">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="10"/>
       <c r="B14" s="15"/>
       <c r="C14" s="20"/>
@@ -5694,7 +5694,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="10"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20"/>
@@ -5705,7 +5705,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="18.5">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="10"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
@@ -5716,7 +5716,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="18.5">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="10"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20"/>
@@ -5727,7 +5727,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="18.5">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="10"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
@@ -5738,7 +5738,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="18.5">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="10"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -5749,7 +5749,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="18.5">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="10"/>
       <c r="B20" s="15"/>
       <c r="C20" s="20"/>
@@ -5760,7 +5760,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="18.5">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="10"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20"/>
@@ -5771,7 +5771,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="18.5">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="10"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20"/>
@@ -5782,7 +5782,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="10"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -5793,7 +5793,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="18.5">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="10"/>
       <c r="B24" s="15"/>
       <c r="C24" s="20"/>
@@ -5804,7 +5804,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="18.5">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="10"/>
       <c r="B25" s="15"/>
       <c r="C25" s="20"/>
@@ -5815,7 +5815,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="18.5">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="10"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20"/>
@@ -5826,7 +5826,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="18.5">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="10"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -5837,7 +5837,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="18.5">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="10"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -5848,7 +5848,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="18.5">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="10"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -5859,7 +5859,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="18.5">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="10"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20"/>
@@ -5870,7 +5870,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="18.5">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="10"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -5881,7 +5881,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="18.5">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="10"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
@@ -5892,7 +5892,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="18.5">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="10"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -5903,7 +5903,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="10"/>
       <c r="B34" s="15"/>
       <c r="C34" s="20"/>
@@ -5914,7 +5914,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="18.5">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="10"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -5925,7 +5925,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="18.5">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="10"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -5936,7 +5936,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="18.5">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="10"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -5947,7 +5947,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="18.5">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="10"/>
       <c r="B38" s="15"/>
       <c r="C38" s="29"/>
@@ -5996,21 +5996,21 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="3.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.5">
+    <row r="2" spans="2:14" ht="17.399999999999999">
       <c r="B2" s="45" t="s">
         <v>35</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
     </row>
-    <row r="4" spans="2:14" ht="13">
+    <row r="4" spans="2:14">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6143,10 +6143,22 @@
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1">
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
@@ -6155,7 +6167,7 @@
         <v>2035</v>
       </c>
       <c r="E9" s="6">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>9</v>
@@ -6172,7 +6184,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6231,17 +6243,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6484,6 +6485,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -6493,17 +6505,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6520,4 +6521,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29BCF6A-FB43-48D8-B6C9-B7D7A3D44075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B844A-F4E4-4699-87E8-F3F380E227B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Wymuszenie nowych mocy w elektrowniach jądrowych PWR</t>
+  </si>
+  <si>
+    <t>zgodnie z akutalizacją w nowym PPEJ</t>
+  </si>
+  <si>
+    <t>zatem w modelu:</t>
   </si>
 </sst>
 </file>
@@ -4684,15 +4690,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>174</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>30654</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>24663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>285692</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>60109</xdr:rowOff>
+      <xdr:colOff>316172</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4715,8 +4721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4392560" y="1951434"/>
-          <a:ext cx="4552718" cy="4683646"/>
+          <a:off x="4541694" y="3037829"/>
+          <a:ext cx="4552718" cy="4851286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5993,10 +5999,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:N12"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6143,18 +6149,6 @@
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N8">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1">
       <c r="B9" s="9" t="s">
@@ -6172,6 +6166,9 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
@@ -6189,6 +6186,24 @@
       <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="I10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1">
       <c r="B11" s="9" t="s">
@@ -6206,6 +6221,24 @@
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="I11">
+        <v>2036</v>
+      </c>
+      <c r="J11">
+        <v>2038</v>
+      </c>
+      <c r="K11">
+        <v>2040</v>
+      </c>
+      <c r="L11">
+        <v>2040</v>
+      </c>
+      <c r="M11">
+        <v>2042</v>
+      </c>
+      <c r="N11">
+        <v>2044</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
@@ -6222,6 +6255,51 @@
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="I12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="I14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="I15">
+        <v>2035</v>
+      </c>
+      <c r="J15">
+        <v>2040</v>
+      </c>
+      <c r="K15">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K16">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6243,6 +6321,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6485,17 +6574,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -6505,6 +6583,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6521,15 +6610,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B844A-F4E4-4699-87E8-F3F380E227B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4643355E-5D3E-46BA-A8DC-5F871E4B3B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>zgodnie z akutalizacją w nowym PPEJ</t>
   </si>
   <si>
-    <t>zatem w modelu:</t>
+    <t>zatem w modelu (Wariant BAZOWY):</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +3084,7 @@
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="102" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3193,6 +3193,7 @@
     <xf numFmtId="14" fontId="104" fillId="46" borderId="32" xfId="1261" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1265">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6001,8 +6002,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6276,29 +6277,31 @@
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="58" t="s">
         <v>37</v>
       </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="I15">
+      <c r="I15" s="58">
         <v>2035</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="58">
         <v>2040</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="58">
         <v>2045</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="I16">
+      <c r="I16" s="58">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="58">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="58">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -6321,17 +6324,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6574,6 +6566,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -6583,17 +6586,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6610,4 +6602,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4643355E-5D3E-46BA-A8DC-5F871E4B3B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA06FB21-1B92-4917-A66D-99836EB498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>zatem w modelu (Wariant BAZOWY):</t>
+  </si>
+  <si>
+    <t>wariant opóźnienia o 3 lata</t>
+  </si>
+  <si>
+    <t>zatem w modelu (Wariant Opóźnień):</t>
+  </si>
+  <si>
+    <t>wariant opóźnienia o 5 lat</t>
+  </si>
+  <si>
+    <t>zatem w modelu (Wariant Wiekszych Opóźnień):</t>
   </si>
 </sst>
 </file>
@@ -3157,6 +3169,7 @@
     </xf>
     <xf numFmtId="0" fontId="108" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="109" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="105" fillId="46" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3193,7 +3206,6 @@
     <xf numFmtId="14" fontId="104" fillId="46" borderId="32" xfId="1261" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1265">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4691,15 +4703,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>30654</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>24663</xdr:rowOff>
+      <xdr:colOff>52425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>316172</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121069</xdr:rowOff>
+      <xdr:colOff>337943</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>125424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4722,7 +4734,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4541694" y="3037829"/>
+          <a:off x="4563465" y="3721452"/>
           <a:ext cx="4552718" cy="4851286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5099,9 +5111,9 @@
       <c r="A6" s="10"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="J6" s="21"/>
       <c r="K6" s="19"/>
       <c r="L6" s="10"/>
@@ -5122,9 +5134,9 @@
       <c r="A8" s="10"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="J8" s="21"/>
       <c r="K8" s="19"/>
       <c r="L8" s="10"/>
@@ -5173,15 +5185,15 @@
       <c r="A14" s="10"/>
       <c r="B14" s="15"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="49" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
       <c r="J14" s="21"/>
       <c r="K14" s="19"/>
       <c r="L14" s="10"/>
@@ -5192,9 +5204,9 @@
       <c r="C15" s="20"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="J15" s="21"/>
       <c r="K15" s="19"/>
       <c r="L15" s="10"/>
@@ -5219,16 +5231,16 @@
       <c r="A18" s="10"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="47"/>
+      <c r="F18" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="21"/>
       <c r="K18" s="19"/>
       <c r="L18" s="10"/>
@@ -5239,10 +5251,10 @@
       <c r="C19" s="20"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="21"/>
       <c r="K19" s="19"/>
       <c r="L19" s="10"/>
@@ -5253,10 +5265,10 @@
       <c r="C20" s="20"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="21"/>
       <c r="K20" s="19"/>
       <c r="L20" s="10"/>
@@ -5276,10 +5288,10 @@
       <c r="A22" s="10"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="27">
         <v>45078</v>
       </c>
@@ -5357,10 +5369,10 @@
       <c r="A28" s="10"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="11" t="s">
         <v>25</v>
       </c>
@@ -5399,10 +5411,10 @@
       <c r="A32" s="10"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="11" t="s">
         <v>25</v>
       </c>
@@ -5574,11 +5586,11 @@
       <c r="A4" s="10"/>
       <c r="B4" s="15"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="21"/>
       <c r="H4" s="19"/>
       <c r="I4" s="10"/>
@@ -5598,11 +5610,11 @@
       <c r="A6" s="10"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19"/>
       <c r="I6" s="10"/>
@@ -5622,11 +5634,11 @@
       <c r="A8" s="10"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="21"/>
       <c r="H8" s="19"/>
       <c r="I8" s="10"/>
@@ -6000,10 +6012,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6017,7 +6029,7 @@
     <col min="7" max="7" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.399999999999999">
+    <row r="2" spans="2:28" ht="17.399999999999999">
       <c r="B2" s="45" t="s">
         <v>35</v>
       </c>
@@ -6028,12 +6040,12 @@
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:28">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1">
+    <row r="5" spans="2:28" ht="15.75" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6068,7 +6080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
+    <row r="6" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1">
+    <row r="7" spans="2:28" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6134,7 +6146,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1">
+    <row r="8" spans="2:28" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6151,7 +6163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1">
+    <row r="9" spans="2:28" ht="15.75" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -6170,8 +6182,14 @@
       <c r="I9" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1">
+      <c r="P9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
@@ -6182,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6205,8 +6223,44 @@
       <c r="N10" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" customHeight="1">
+      <c r="P10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="15.75" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
@@ -6217,7 +6271,7 @@
         <v>2045</v>
       </c>
       <c r="E11" s="6">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -6240,10 +6294,46 @@
       <c r="N11">
         <v>2044</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="P11">
+        <v>2039</v>
+      </c>
+      <c r="Q11">
+        <v>2041</v>
+      </c>
+      <c r="R11">
+        <v>2043</v>
+      </c>
+      <c r="S11">
+        <v>2043</v>
+      </c>
+      <c r="T11">
+        <v>2045</v>
+      </c>
+      <c r="U11">
+        <v>2047</v>
+      </c>
+      <c r="W11">
+        <v>2041</v>
+      </c>
+      <c r="X11">
+        <v>2043</v>
+      </c>
+      <c r="Y11">
+        <v>2046</v>
+      </c>
+      <c r="Z11">
+        <v>2046</v>
+      </c>
+      <c r="AA11">
+        <v>2047</v>
+      </c>
+      <c r="AB11">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6252,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6275,34 +6365,156 @@
       <c r="N12">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="I14" s="58" t="s">
+      <c r="P12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="I14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="I15" s="58">
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="P14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="I15" s="46">
         <v>2035</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="46">
         <v>2040</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="46">
         <v>2045</v>
       </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="I16" s="58">
+      <c r="L15" s="46">
+        <v>2050</v>
+      </c>
+      <c r="P15" s="46">
+        <v>2035</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>2040</v>
+      </c>
+      <c r="R15" s="46">
+        <v>2045</v>
+      </c>
+      <c r="S15" s="46">
+        <v>2050</v>
+      </c>
+      <c r="W15" s="46">
+        <v>2035</v>
+      </c>
+      <c r="X15" s="46">
+        <v>2040</v>
+      </c>
+      <c r="Y15" s="46">
+        <v>2045</v>
+      </c>
+      <c r="Z15" s="46">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="I16" s="46">
         <v>0</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="46">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="9:19">
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6324,6 +6536,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6566,17 +6789,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -6586,6 +6798,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6602,15 +6825,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA06FB21-1B92-4917-A66D-99836EB498B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAFEEAA-CD0B-42DE-8E49-3572A4D8513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6271,7 +6271,7 @@
         <v>2045</v>
       </c>
       <c r="E11" s="6">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6536,17 +6536,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6789,6 +6778,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -6798,17 +6798,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6825,4 +6814,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAFEEAA-CD0B-42DE-8E49-3572A4D8513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB4E7E0-396A-49EB-9784-0CCD82E52C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -6014,8 +6014,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6491,7 +6491,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="9:19">
+    <row r="17" spans="9:26">
       <c r="I17" s="8" t="s">
         <v>7</v>
       </c>
@@ -6514,6 +6514,18 @@
         <v>18</v>
       </c>
       <c r="S17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z17" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6536,6 +6548,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6778,17 +6801,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -6798,6 +6810,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6814,15 +6837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB4E7E0-396A-49EB-9784-0CCD82E52C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F2BDB-9F11-400F-B626-EC1C90A04981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6539,26 +6539,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -6801,10 +6781,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6821,20 +6832,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D06E93-971E-4142-A7FC-9A1FDEE3B4F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F2BDB-9F11-400F-B626-EC1C90A04981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E1BE1-7B52-4079-AFF9-C1729F680D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,13 +152,13 @@
     <t>wariant opóźnienia o 3 lata</t>
   </si>
   <si>
-    <t>zatem w modelu (Wariant Opóźnień):</t>
-  </si>
-  <si>
     <t>wariant opóźnienia o 5 lat</t>
   </si>
   <si>
     <t>zatem w modelu (Wariant Wiekszych Opóźnień):</t>
+  </si>
+  <si>
+    <t>zatem w modelu (Wariant Opóźnień o 3 lata):</t>
   </si>
 </sst>
 </file>
@@ -6014,8 +6014,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6186,7 +6186,7 @@
         <v>38</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6271,7 +6271,7 @@
         <v>2045</v>
       </c>
       <c r="E11" s="6">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6409,10 +6409,10 @@
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="P14" s="46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:28">
@@ -6782,6 +6782,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -6790,15 +6799,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6821,6 +6821,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6829,12 +6837,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E1BE1-7B52-4079-AFF9-C1729F680D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF1E495-F152-48C1-8370-4FE53526A18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6271,7 +6271,7 @@
         <v>2045</v>
       </c>
       <c r="E11" s="6">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6782,15 +6782,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -6799,6 +6790,15 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6821,14 +6821,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6837,4 +6829,12 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF1E495-F152-48C1-8370-4FE53526A18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2951E-9E55-4238-8C55-A14BA85E9EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6782,6 +6782,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -6790,15 +6799,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6821,6 +6821,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6829,12 +6837,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2951E-9E55-4238-8C55-A14BA85E9EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600866F-E888-46D2-9835-5DBCEC7A7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6782,15 +6782,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -6799,6 +6790,15 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6821,14 +6821,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6837,4 +6829,12 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600866F-E888-46D2-9835-5DBCEC7A7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75DAFC8-1B83-48BF-929A-19BE290E9D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6271,7 +6271,7 @@
         <v>2045</v>
       </c>
       <c r="E11" s="6">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6782,6 +6782,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -6790,15 +6799,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6821,6 +6821,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6829,12 +6837,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_PWR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75DAFC8-1B83-48BF-929A-19BE290E9D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D1C33-58D1-43D4-AD71-01B7E0E3E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
   <dimension ref="B2:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -6200,7 +6200,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="5">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -6271,7 +6271,7 @@
         <v>2045</v>
       </c>
       <c r="E11" s="6">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -6342,7 +6342,7 @@
         <v>2050</v>
       </c>
       <c r="E12" s="7">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -6782,15 +6782,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -6799,6 +6790,15 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6821,14 +6821,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6837,4 +6829,12 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>